--- a/testData/对接posp接口.xlsx
+++ b/testData/对接posp接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="单笔四要素绑卡" sheetId="11" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="386">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1940,10 +1940,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>QF-POSP-DEPO-INVEST-CLAIM-BATCH_RECHARGE-0032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>返回</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1994,10 +1990,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>batchNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>批次号，'B'+merchantCode（2）+buCode（4）+applicationCode（4）+接口编号最后4位号码(4)+时间戳（17）+递增4位</t>
   </si>
   <si>
@@ -2026,38 +2018,6 @@
   </si>
   <si>
     <t>明细信息，上限为500条</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户账户类型：
-10-夸客
-101-存管账户
-1001-夸客个金、创新、普惠、车贷、房贷等线下借款部门
-10001-理财
-10002-借款
-100001-冻结
-100002-余额
-100003-中间，
-理财扣款传值为merchantCode-101-buCode-10001-100002。多个操作用逗号分隔，和operAccountType先后顺序和个数对应，开始和最后不要加逗号。</t>
-  </si>
-  <si>
-    <t>操作账户类型：
-10-开户
-11-充值
-12-转账转入 16-转账转出
-13-冻结 17-解冻（也是转账一种转账）
-14-提现
-15-销户
-21-绑卡
-22-解绑卡
-30-设置密码
-31-修改密码
-32-重置找回密码
-34-密码校验
-和operAccount先后顺序和个数对应，可以对应operAccount指定多种操作，多个操作用逗号分隔，开始和最后不要加逗号。此处暂定11。</t>
-  </si>
-  <si>
-    <t>transTradeNo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2091,10 +2051,6 @@
   </si>
   <si>
     <t>批次号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>batchStatus</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2724,6 +2680,102 @@
   <si>
     <t>token</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>interfaceId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>operAccountType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>transTradeNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>amount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifyUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>currency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>batchStatus</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户Code，由POSP管理后台配置后分派各商户使用
+01-夸客、
+02-点融</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">业务BU的系统applicationCode，由POSP管理后台配置后分派各商户各BU的各使用
+1000-POSP管理后台
+1001-夸客XDT
+1002-夸客Q-BID
+1003-夸客UFO
+1004-夸客CRM
+1005-夸客CAIMI
+1006-夸客NXD
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF-POSP-DEPO-INVEST-CLAIM-BATCH_RECHARGE-0032</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户账户类型：
+10-夸客
+101-存管账户
+1001-夸客个金、创新、普惠、车贷、房贷等线下借款部门
+10001-理财
+10002-借款
+100001-冻结
+100002-余额
+100003-中间，
+理财扣款传值为merchantCode-101-buCode-10001-100002。多个操作用逗号分隔，和operAccountType先后顺序和个数对应，开始和最后不要加逗号。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作账户类型：
+10-开户
+11-充值
+12-转账转入 16-转账转出
+13-冻结 17-解冻（也是转账一种转账）
+14-提现
+15-销户
+21-绑卡
+22-解绑卡
+30-设置密码
+31-修改密码
+32-重置找回密码
+34-密码校验
+和operAccount先后顺序和个数对应，可以对应operAccount指定多种操作，多个操作用逗号分隔，开始和最后不要加逗号。此处暂定11。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4149,10 +4201,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -4160,7 +4212,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -4178,10 +4230,10 @@
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
@@ -4205,10 +4257,10 @@
     </row>
     <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -4216,10 +4268,10 @@
     </row>
     <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -4243,10 +4295,10 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="74"/>
@@ -4270,10 +4322,10 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -4297,10 +4349,10 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C8" s="74"/>
       <c r="D8" s="74"/>
@@ -4324,7 +4376,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4349,19 +4401,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -4382,19 +4434,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C11" s="36">
         <v>50</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -4418,16 +4470,16 @@
         <v>194</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C12" s="23">
         <v>50</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -4451,16 +4503,16 @@
         <v>195</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C13" s="23">
         <v>2</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -4481,16 +4533,16 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C14" s="23">
         <v>5</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>196</v>
@@ -4514,16 +4566,16 @@
     </row>
     <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C15" s="23">
         <v>500</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>197</v>
@@ -4547,19 +4599,19 @@
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -4580,19 +4632,19 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C17" s="12">
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -4613,16 +4665,16 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C18" s="12">
         <v>600</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>75</v>
@@ -4669,7 +4721,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -4678,53 +4730,53 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C23" s="23">
         <v>500</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
@@ -4762,7 +4814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
@@ -4804,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
@@ -4812,7 +4864,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -4833,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="93"/>
@@ -4860,7 +4912,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -4887,7 +4939,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C5" s="77"/>
       <c r="D5" s="77"/>
@@ -4914,7 +4966,7 @@
         <v>81</v>
       </c>
       <c r="B6" s="93" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C6" s="93"/>
       <c r="D6" s="93"/>
@@ -4968,7 +5020,7 @@
         <v>84</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="66"/>
@@ -5050,7 +5102,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>46</v>
@@ -5062,7 +5114,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -5092,7 +5144,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>25</v>
@@ -5125,7 +5177,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>28</v>
@@ -5189,10 +5241,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -5222,7 +5274,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>34</v>
@@ -5255,7 +5307,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>38</v>
@@ -5288,7 +5340,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>40</v>
@@ -5321,10 +5373,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -5357,7 +5409,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -5390,7 +5442,7 @@
         <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -5417,7 +5469,7 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -5447,7 +5499,7 @@
         <v>600</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>75</v>
@@ -5513,10 +5565,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -5546,7 +5598,7 @@
         <v>500</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>154</v>
@@ -5570,10 +5622,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C29" s="90"/>
       <c r="D29" s="90"/>
@@ -5606,10 +5658,10 @@
         <v>50</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -5639,7 +5691,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>90</v>
@@ -5663,7 +5715,7 @@
     </row>
     <row r="32" spans="1:21" ht="48" x14ac:dyDescent="0.15">
       <c r="A32" s="48" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>27</v>
@@ -5672,10 +5724,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -5705,10 +5757,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>284</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -5722,15 +5774,15 @@
         <v>20</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A35" s="48" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>27</v>
@@ -5739,15 +5791,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>27</v>
@@ -5756,10 +5808,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -5773,7 +5825,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>94</v>
@@ -5790,7 +5842,7 @@
         <v>500</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E38" s="36" t="s">
         <v>96</v>
@@ -8747,7 +8799,7 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -8780,7 +8832,7 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>27</v>
@@ -8813,7 +8865,7 @@
     </row>
     <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -8846,7 +8898,7 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -8978,7 +9030,7 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>27</v>
@@ -9044,7 +9096,7 @@
     </row>
     <row r="20" spans="1:21" s="30" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>27</v>
@@ -9077,7 +9129,7 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>27</v>
@@ -9932,7 +9984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -10172,7 +10224,7 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>21</v>
@@ -10205,7 +10257,7 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>27</v>
@@ -10238,7 +10290,7 @@
     </row>
     <row r="13" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>27</v>
@@ -10271,7 +10323,7 @@
     </row>
     <row r="14" spans="1:21" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>27</v>
@@ -10280,7 +10332,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>211</v>
@@ -10304,7 +10356,7 @@
     </row>
     <row r="15" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>27</v>
@@ -10337,7 +10389,7 @@
     </row>
     <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>27</v>
@@ -10370,7 +10422,7 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>27</v>
@@ -10403,7 +10455,7 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>27</v>
@@ -10415,7 +10467,7 @@
         <v>87</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -10469,7 +10521,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>27</v>
@@ -10535,7 +10587,7 @@
     </row>
     <row r="22" spans="1:21" s="30" customFormat="1" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>27</v>
@@ -10601,7 +10653,7 @@
     </row>
     <row r="24" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>27</v>
@@ -10766,7 +10818,7 @@
     </row>
     <row r="29" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>27</v>
@@ -10832,7 +10884,7 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>27</v>
@@ -10898,7 +10950,7 @@
     </row>
     <row r="33" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>27</v>
@@ -10964,7 +11016,7 @@
     </row>
     <row r="35" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>27</v>
@@ -10997,7 +11049,7 @@
     </row>
     <row r="36" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>27</v>
@@ -11030,7 +11082,7 @@
     </row>
     <row r="37" spans="1:21" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>27</v>
@@ -11129,7 +11181,7 @@
     </row>
     <row r="40" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>27</v>
@@ -11162,7 +11214,7 @@
     </row>
     <row r="41" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>27</v>
@@ -11390,7 +11442,7 @@
     </row>
     <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>228</v>
@@ -11407,7 +11459,7 @@
     </row>
     <row r="52" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
@@ -11424,7 +11476,7 @@
     </row>
     <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>27</v>
@@ -11492,7 +11544,7 @@
     </row>
     <row r="57" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>27</v>
@@ -11509,7 +11561,7 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>27</v>
@@ -12965,8 +13017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13007,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>244</v>
+        <v>383</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -13015,7 +13067,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -13036,7 +13088,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -13063,7 +13115,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" s="85"/>
       <c r="D4" s="85"/>
@@ -13082,10 +13134,10 @@
     </row>
     <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>248</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>249</v>
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -13254,7 +13306,7 @@
     </row>
     <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>27</v>
@@ -13287,7 +13339,7 @@
     </row>
     <row r="13" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>24</v>
+        <v>347</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>27</v>
@@ -13299,7 +13351,7 @@
         <v>87</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>209</v>
+        <v>381</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -13320,7 +13372,7 @@
     </row>
     <row r="14" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>26</v>
+        <v>358</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>27</v>
@@ -13363,7 +13415,7 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -13384,7 +13436,7 @@
     </row>
     <row r="16" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>350</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>27</v>
@@ -13396,7 +13448,7 @@
         <v>87</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -13417,7 +13469,7 @@
     </row>
     <row r="17" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>27</v>
@@ -13429,7 +13481,7 @@
         <v>87</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -13450,7 +13502,7 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>37</v>
+        <v>371</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>27</v>
@@ -13483,7 +13535,7 @@
     </row>
     <row r="19" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>27</v>
@@ -13549,7 +13601,7 @@
     </row>
     <row r="21" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>72</v>
+        <v>378</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>27</v>
@@ -13582,7 +13634,7 @@
     </row>
     <row r="22" spans="1:21" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>27</v>
@@ -13594,7 +13646,7 @@
         <v>87</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -13615,7 +13667,7 @@
     </row>
     <row r="23" spans="1:21" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>27</v>
@@ -13627,7 +13679,7 @@
         <v>87</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -13648,17 +13700,17 @@
     </row>
     <row r="24" spans="1:21" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42" t="s">
         <v>87</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -13679,7 +13731,7 @@
     </row>
     <row r="25" spans="1:21" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>33</v>
+        <v>373</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>27</v>
@@ -13741,12 +13793,12 @@
         <v>87</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>261</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="228" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>53</v>
+        <v>374</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>27</v>
@@ -13758,7 +13810,7 @@
         <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>262</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
@@ -13780,7 +13832,7 @@
     </row>
     <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>43</v>
+        <v>375</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>27</v>
@@ -13831,7 +13883,7 @@
     </row>
     <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>27</v>
@@ -13843,12 +13895,12 @@
         <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>174</v>
+        <v>379</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>27</v>
@@ -13865,7 +13917,7 @@
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>27</v>
@@ -13944,7 +13996,7 @@
         <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -13966,20 +14018,20 @@
     </row>
     <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
-        <v>252</v>
+        <v>311</v>
       </c>
       <c r="B43" s="47" t="s">
         <v>27</v>
@@ -13991,12 +14043,12 @@
         <v>87</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="48" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>27</v>
@@ -14008,12 +14060,12 @@
         <v>87</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="48" t="s">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>27</v>

--- a/testData/对接posp接口.xlsx
+++ b/testData/对接posp接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="单笔四要素绑卡" sheetId="11" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="388">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2776,6 +2776,14 @@
 34-密码校验
 和operAccount先后顺序和个数对应，可以对应operAccount指定多种操作，多个操作用逗号分隔，开始和最后不要加逗号。此处暂定11。</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4162,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -4814,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -5364,7 +5372,7 @@
     </row>
     <row r="19" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>41</v>
+        <v>386</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>27</v>
@@ -5463,7 +5471,7 @@
     </row>
     <row r="22" spans="1:21" ht="57" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>166</v>
+        <v>387</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -6175,7 +6183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -6653,7 +6661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -7877,8 +7885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E41"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8559,7 +8567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
@@ -9984,7 +9992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -11682,7 +11690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -13017,7 +13025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>

--- a/testData/对接posp接口.xlsx
+++ b/testData/对接posp接口.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="391">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -270,18 +270,6 @@
   </si>
   <si>
     <t>返回示例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>code 值为200表示成功，400表示系统重试后内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
-{
- "code":"200",
- "msg":"成功",
- "data":{
-  "tradeNo":"test001",
-  "tradeStatus":"30"
- }
-}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -781,10 +769,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>QF-POSP-DEPO-CREATE-ACC-0012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>接口功能描述</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -877,18 +861,6 @@
       <t>san</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>code 值为200表示成功，400表示重试后系统内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
-{
- "code":"200",
- "msg":"成功",
- "data":{
-  "tradeNo":"test001",
-  "tradeStatus":"30",
-  "accountNo":"123456789123456789"
- }
-}</t>
   </si>
   <si>
     <t>接口编号</t>
@@ -2778,11 +2750,52 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>accountType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在未做验证，输入非可选列表值也返回值，比如99</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code 值为200表示成功，400表示系统重试后内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
+{
+ "code":"200",
+ "msg":"成功",
+ "data":{
+  "tradeNo":"test001",
+  "tradeStatus":"30"
+ }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造的C10的开户请求都返回错误，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF-POSP-DEPO-CREATE-ACC-0012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code 值为200表示成功，400表示重试后系统内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
+{
+ "code":"200",
+ "msg":"成功",
+ "data":{
+  "tradeNo":"test001",
+  "tradeStatus":"30",
+  "accountNo":"123456789123456789"
+ }
+}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>accountNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>accountType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2928,7 +2941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2997,6 +3010,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3016,7 +3040,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3170,6 +3194,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3607,7 +3637,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3623,82 +3653,82 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -3707,442 +3737,442 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
         <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="114" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>4</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>50</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <v>32</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>50</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>32</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="18">
         <v>1000</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="18">
         <v>200</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="19">
         <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="19">
         <v>32</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="19">
         <v>1</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="19">
         <v>20</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="12">
         <v>10</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="12">
         <v>100</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="19">
         <v>255</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="19">
         <v>16</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="12">
         <v>100</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="19">
         <v>600</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4185,11 +4215,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -4209,18 +4239,18 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+        <v>287</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -4238,14 +4268,14 @@
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+        <v>290</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -4265,25 +4295,25 @@
     </row>
     <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+        <v>292</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+        <v>294</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -4303,14 +4333,14 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+        <v>296</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
@@ -4330,14 +4360,14 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>302</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+        <v>298</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -4357,14 +4387,14 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+        <v>300</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -4384,7 +4414,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4409,19 +4439,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>310</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -4442,19 +4472,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C11" s="36">
         <v>50</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -4475,19 +4505,19 @@
     </row>
     <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C12" s="23">
         <v>50</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -4508,19 +4538,19 @@
     </row>
     <row r="13" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C13" s="23">
         <v>2</v>
       </c>
       <c r="D13" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>313</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>316</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -4541,19 +4571,19 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C14" s="23">
         <v>5</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -4574,19 +4604,19 @@
     </row>
     <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" s="23">
         <v>500</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -4607,19 +4637,19 @@
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -4640,19 +4670,19 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C17" s="12">
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -4673,19 +4703,19 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C18" s="12">
         <v>600</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -4729,7 +4759,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -4738,53 +4768,53 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>327</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C23" s="23">
         <v>500</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
@@ -4822,8 +4852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4837,11 +4867,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="92"/>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
       <c r="H1" s="24"/>
@@ -4863,16 +4893,16 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="B2" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -4892,12 +4922,12 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
+      <c r="B3" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -4919,12 +4949,12 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24"/>
       <c r="H4" s="24"/>
@@ -4946,12 +4976,12 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>346</v>
-      </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="79" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
@@ -4971,14 +5001,14 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -5000,12 +5030,12 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="B7" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -5025,14 +5055,14 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+        <v>83</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -5052,7 +5082,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -5077,19 +5107,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -5110,19 +5140,19 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="26">
         <v>100</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -5143,19 +5173,19 @@
     </row>
     <row r="12" spans="1:21" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -5176,19 +5206,19 @@
     </row>
     <row r="13" spans="1:21" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="36">
         <v>4</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -5209,17 +5239,17 @@
     </row>
     <row r="14" spans="1:21" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="36">
         <v>4</v>
       </c>
       <c r="D14" s="47"/>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -5240,19 +5270,19 @@
     </row>
     <row r="15" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="36">
         <v>1</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -5273,19 +5303,19 @@
     </row>
     <row r="16" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="36">
         <v>50</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -5306,19 +5336,19 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="49">
         <v>10</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -5339,19 +5369,19 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A18" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="49">
         <v>8</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -5372,19 +5402,19 @@
     </row>
     <row r="19" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>386</v>
+        <v>40</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="16">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -5405,19 +5435,19 @@
     </row>
     <row r="20" spans="1:21" ht="228" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="14">
         <v>3</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -5438,19 +5468,19 @@
     </row>
     <row r="21" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -5471,13 +5501,13 @@
     </row>
     <row r="22" spans="1:21" ht="57" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -5498,19 +5528,19 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="16">
         <v>600</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.15">
@@ -5522,7 +5552,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -5531,19 +5561,19 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A26" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="E26" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -5564,19 +5594,19 @@
     </row>
     <row r="27" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -5597,19 +5627,19 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A28" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>500</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -5630,14 +5660,14 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>280</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
+        <v>258</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>277</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -5657,19 +5687,19 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="50">
         <v>50</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -5690,19 +5720,19 @@
     </row>
     <row r="31" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="49">
         <v>2</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -5723,19 +5753,19 @@
     </row>
     <row r="32" spans="1:21" ht="48" x14ac:dyDescent="0.15">
       <c r="A32" s="48" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="16">
         <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -5756,104 +5786,104 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="48" t="s">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="16">
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
         <v>20</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A35" s="48" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="8">
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8">
         <v>500</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -5900,6 +5930,7 @@
     <hyperlink ref="H2" location="接口清单!A1" display="返回"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5924,82 +5955,82 @@
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
+      <c r="B1" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="B2" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -6008,155 +6039,155 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="8">
         <v>50</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="12">
         <v>2</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>5</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>500</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12">
         <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>600</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6181,10 +6212,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6194,447 +6225,454 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B2" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B3" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="75" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="25" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
         <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>4</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>50</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="26">
         <v>50</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="213.75" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
-        <v>49</v>
-      </c>
       <c r="B21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="27">
         <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C23" s="27">
         <v>30</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="199.5" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C24" s="18">
         <v>1000</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="270.75" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="270.75" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="18">
         <v>200</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="12">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="27">
         <v>100</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="85.5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="19">
         <v>16</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="27">
         <v>600</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -6661,7 +6699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -6676,26 +6714,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
+        <v>100</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -6713,14 +6751,14 @@
     </row>
     <row r="3" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+        <v>101</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -6740,36 +6778,36 @@
     </row>
     <row r="4" spans="1:21" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+        <v>123</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+        <v>125</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:21" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+        <v>127</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -6789,14 +6827,14 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+        <v>129</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -6816,14 +6854,14 @@
     </row>
     <row r="8" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+        <v>131</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -6843,7 +6881,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -6868,19 +6906,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>138</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>141</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -6901,19 +6939,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C11" s="8">
         <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -6934,19 +6972,19 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
         <v>2</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -6967,19 +7005,19 @@
     </row>
     <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -7000,19 +7038,19 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>5</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -7033,19 +7071,19 @@
     </row>
     <row r="15" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>500</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -7066,19 +7104,19 @@
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -7099,19 +7137,19 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -7132,19 +7170,19 @@
     </row>
     <row r="18" spans="1:21" s="30" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>2</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -7165,19 +7203,19 @@
     </row>
     <row r="19" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>600</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -7221,7 +7259,7 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7246,19 +7284,19 @@
     </row>
     <row r="22" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="E22" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -7279,19 +7317,19 @@
     </row>
     <row r="23" spans="1:21" ht="114" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="8">
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -7312,19 +7350,19 @@
     </row>
     <row r="24" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="8">
         <v>500</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -7885,7 +7923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7902,82 +7940,82 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
+      <c r="B2" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+        <v>154</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
+        <v>156</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+        <v>80</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -7986,561 +8024,561 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="C9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8">
         <v>4</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="128.25" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>4</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>50</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>10</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>8</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>50</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="26">
         <v>50</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>50</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="342" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="18">
         <v>1000</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="270.75" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="18">
         <v>50</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="18">
         <v>1</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="19">
         <v>32</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="19">
         <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="19">
         <v>20</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="12">
         <v>10</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="12">
         <v>100</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="12">
         <v>255</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="27">
         <v>5</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="27">
         <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="27">
         <v>1</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="27">
         <v>100</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2">
         <v>100</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="26">
         <v>3</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="12">
         <v>100</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2">
         <v>600</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -8582,26 +8620,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+        <v>183</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -8619,14 +8657,14 @@
     </row>
     <row r="3" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+        <v>186</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -8646,36 +8684,36 @@
     </row>
     <row r="4" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+        <v>154</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+        <v>156</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:21" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -8697,12 +8735,12 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="B7" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -8722,14 +8760,14 @@
     </row>
     <row r="8" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -8749,7 +8787,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -8774,19 +8812,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -8807,19 +8845,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -8840,19 +8878,19 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -8873,19 +8911,19 @@
     </row>
     <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -8906,19 +8944,19 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>500</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -8939,19 +8977,19 @@
     </row>
     <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -8972,19 +9010,19 @@
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -9005,19 +9043,19 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -9038,19 +9076,19 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>19</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -9071,19 +9109,19 @@
     </row>
     <row r="19" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>19</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -9104,19 +9142,19 @@
     </row>
     <row r="20" spans="1:21" s="30" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12">
         <v>2</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -9137,19 +9175,19 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="12">
         <v>600</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -9216,7 +9254,7 @@
     </row>
     <row r="24" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -9241,19 +9279,19 @@
     </row>
     <row r="25" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -9274,19 +9312,19 @@
     </row>
     <row r="26" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8">
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -9307,19 +9345,19 @@
     </row>
     <row r="27" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="8">
         <v>500</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -10007,26 +10045,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+        <v>183</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -10044,14 +10082,14 @@
     </row>
     <row r="3" spans="1:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="77" t="s">
-        <v>206</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+        <v>186</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -10071,36 +10109,36 @@
     </row>
     <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+        <v>154</v>
+      </c>
+      <c r="B4" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+        <v>156</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:21" ht="120.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -10122,12 +10160,12 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="B7" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -10147,14 +10185,14 @@
     </row>
     <row r="8" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -10174,7 +10212,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -10199,19 +10237,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -10232,19 +10270,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -10265,19 +10303,19 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -10298,19 +10336,19 @@
     </row>
     <row r="13" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="8">
         <v>4</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -10331,19 +10369,19 @@
     </row>
     <row r="14" spans="1:21" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -10364,19 +10402,19 @@
     </row>
     <row r="15" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -10397,19 +10435,19 @@
     </row>
     <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8">
         <v>50</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -10430,19 +10468,19 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>10</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -10463,19 +10501,19 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>10</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -10496,19 +10534,19 @@
     </row>
     <row r="19" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>8</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -10529,19 +10567,19 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -10562,19 +10600,19 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="185.25" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="18">
         <v>1000</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -10595,19 +10633,19 @@
     </row>
     <row r="22" spans="1:21" s="30" customFormat="1" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="18">
         <v>50</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -10628,19 +10666,19 @@
     </row>
     <row r="23" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="18">
         <v>1</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -10661,19 +10699,19 @@
     </row>
     <row r="24" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="27">
         <v>2</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -10694,19 +10732,19 @@
     </row>
     <row r="25" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="26">
         <v>50</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -10727,19 +10765,19 @@
     </row>
     <row r="26" spans="1:21" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A26" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -10760,19 +10798,19 @@
     </row>
     <row r="27" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
         <v>50</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -10793,19 +10831,19 @@
     </row>
     <row r="28" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="19">
         <v>32</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -10826,19 +10864,19 @@
     </row>
     <row r="29" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="19">
         <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -10859,19 +10897,19 @@
     </row>
     <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="19">
         <v>20</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -10892,19 +10930,19 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="12">
         <v>10</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -10925,19 +10963,19 @@
     </row>
     <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="12">
         <v>100</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -10958,19 +10996,19 @@
     </row>
     <row r="33" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="12">
         <v>255</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -10991,19 +11029,19 @@
     </row>
     <row r="34" spans="1:21" s="30" customFormat="1" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="2">
         <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
@@ -11024,19 +11062,19 @@
     </row>
     <row r="35" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="27">
         <v>4</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -11057,19 +11095,19 @@
     </row>
     <row r="36" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="27">
         <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -11090,19 +11128,19 @@
     </row>
     <row r="37" spans="1:21" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="27">
         <v>20</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -11123,19 +11161,19 @@
     </row>
     <row r="38" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="27">
         <v>1</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
@@ -11156,19 +11194,19 @@
     </row>
     <row r="39" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="27">
         <v>1</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -11189,19 +11227,19 @@
     </row>
     <row r="40" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="27">
         <v>10</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -11222,19 +11260,19 @@
     </row>
     <row r="41" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="27">
         <v>100</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -11255,19 +11293,19 @@
     </row>
     <row r="42" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="26">
         <v>3</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -11288,19 +11326,19 @@
     </row>
     <row r="43" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="12">
         <v>100</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -11321,19 +11359,19 @@
     </row>
     <row r="44" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
         <v>600</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -11377,7 +11415,7 @@
     </row>
     <row r="46" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -11386,202 +11424,202 @@
     </row>
     <row r="47" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="E47" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A48" s="17" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C49" s="2">
         <v>500</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C51" s="2">
         <v>50</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2">
         <v>2</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="2">
         <v>5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" s="2">
         <v>500</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="12">
         <v>19</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="12">
         <v>19</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C57" s="12">
         <v>2</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" s="12">
         <v>600</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -11705,26 +11743,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+        <v>183</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -11744,12 +11782,12 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
+      <c r="B3" s="79" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
@@ -11771,34 +11809,34 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="58" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
     </row>
     <row r="6" spans="1:21" ht="108" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -11820,12 +11858,12 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
+      <c r="B7" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
@@ -11845,14 +11883,14 @@
     </row>
     <row r="8" spans="1:21" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
@@ -11872,7 +11910,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -11897,19 +11935,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -11930,19 +11968,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -11963,19 +12001,19 @@
     </row>
     <row r="12" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -11996,19 +12034,19 @@
     </row>
     <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -12029,19 +12067,19 @@
     </row>
     <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>500</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -12062,19 +12100,19 @@
     </row>
     <row r="15" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12">
         <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -12095,19 +12133,19 @@
     </row>
     <row r="16" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -12128,19 +12166,19 @@
     </row>
     <row r="17" spans="1:21" s="30" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="12">
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -12161,19 +12199,19 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>600</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -12217,7 +12255,7 @@
     </row>
     <row r="20" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -12242,19 +12280,19 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="E21" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>150</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -12275,19 +12313,19 @@
     </row>
     <row r="22" spans="1:21" ht="114" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -12308,19 +12346,19 @@
     </row>
     <row r="23" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>500</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -13040,11 +13078,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32"/>
@@ -13066,16 +13104,16 @@
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -13095,12 +13133,12 @@
       <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -13122,34 +13160,34 @@
       <c r="A4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="B4" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
     </row>
     <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
     </row>
     <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+        <v>244</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
@@ -13171,12 +13209,12 @@
       <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="B7" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -13196,14 +13234,14 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
+        <v>83</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
@@ -13223,7 +13261,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -13248,19 +13286,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="E10" s="25" t="s">
         <v>18</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>19</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -13281,19 +13319,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -13314,19 +13352,19 @@
     </row>
     <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>50</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -13347,19 +13385,19 @@
     </row>
     <row r="13" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>32</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -13380,19 +13418,19 @@
     </row>
     <row r="14" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="8">
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -13413,17 +13451,17 @@
     </row>
     <row r="15" spans="1:21" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8">
         <v>4</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -13444,19 +13482,19 @@
     </row>
     <row r="16" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -13477,19 +13515,19 @@
     </row>
     <row r="17" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="26">
         <v>50</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -13510,19 +13548,19 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>10</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
@@ -13543,19 +13581,19 @@
     </row>
     <row r="19" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="12">
         <v>8</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
@@ -13576,19 +13614,19 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="26">
         <v>3</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -13609,19 +13647,19 @@
     </row>
     <row r="21" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="26">
         <v>500</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -13642,19 +13680,19 @@
     </row>
     <row r="22" spans="1:21" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="16">
         <v>5</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -13675,19 +13713,19 @@
     </row>
     <row r="23" spans="1:21" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="16">
         <v>20</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -13708,17 +13746,17 @@
     </row>
     <row r="24" spans="1:21" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -13739,19 +13777,19 @@
     </row>
     <row r="25" spans="1:21" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="8">
         <v>50</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -13772,189 +13810,189 @@
     </row>
     <row r="26" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>32</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="171" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="18">
         <v>1000</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="228" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="18">
         <v>50</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="18">
         <v>1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="26">
         <v>50</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="199.5" x14ac:dyDescent="0.15">
       <c r="A31" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <v>50</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="19">
         <v>50</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="27">
         <v>4</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="27">
         <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2">
         <v>600</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -13966,7 +14004,7 @@
     </row>
     <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -13975,117 +14013,117 @@
     </row>
     <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2">
         <v>500</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" s="36">
         <v>50</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="48" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" s="49">
         <v>2</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="48" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="49">
         <v>600</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/testData/对接posp接口.xlsx
+++ b/testData/对接posp接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="738" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="单笔四要素绑卡" sheetId="11" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="400">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1226,23 +1226,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>code 值为200表示成功，400表示系统重试后内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
-{
- "code":"200",
- "msg":"成功",
- "data":{
-  "tradeNo":"test001",
-  "tradeStatus":"30",
-  "finish_datetime":"2017-04-17 01:16:18",
-  "currency":"CNY",
-  "succeedAmount":"100.00",
-  "payChannel":"00",
-  "productCode","23023"
- }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>接口号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1262,47 +1245,6 @@
   </si>
   <si>
     <t>accountType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户账户类型：
-C-B10-夸客个人账户
-C-B10-存管账户
-C-C10-夸客总部账户
-C-C11-财富账户
-C-C12-互联网账户
-C-D10-借款账户
-C-D11-理财账户
-C-E10-冻结账户
-C-E11-余额账户
-C-E12-中间账户
-暂定传值为
-当客户为互联网理财客户时-C-A10-&gt;C-B10-&gt;C-C12-&gt;C-D11-&gt;C-E11
-当客户为财富理财客户时-C-A10-&gt;C-B10-&gt;C-C11-&gt;C-D11-&gt;C-E11
-当客户为互联网暖贷等借款客户时-C-A10-&gt;C-B10-&gt;C-C11-&gt;C-D10-&gt;C-E11
-当客户为财富借款客户时-C-A10-&gt;C-B10-&gt;C-C11-&gt;C-D10-&gt;C-E11（此项暂无）
-当客户为其他夸客总部借款客户时-C-A10-&gt;C-B10-&gt;C-C10-&gt;C-D10-&gt;C-E11
-多个操作用逗号分隔，和operAccountType先后顺序和个数对应，开始和最后不要加逗号。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作账户类型：
-10-开户
-11-充值
-12-他人转账转入
-16-自己转账转出
-13-冻结
-17-解冻（也是转账一种转账）
-18-转账
-14-提现
-15-销户
-21-绑卡
-22-解绑卡
-30-设置密码
-31-修改密码
-32-重置找回密码
-34-密码校验
-和operAccount先后顺序和个数对应，可以对应operAccount指定多种操作，多个操作用逗号分隔，开始和最后不要加逗号。此处暂定11。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1364,10 +1306,6 @@
   </si>
   <si>
     <t>令牌标示，1-令牌校验 2-令牌不校验 传值同chargeType，当chargeType为1时传1，当chargeType为2时传2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1885,18 +1823,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>请求参数示例：
-{
- "tradeNo": "test001",
- "tradeStatus": "30",
- "finishDatetime":"2017-04-17 01:16:18",
- "succeedAmount":"110.00"
- "payChannel":"03",
- "remark":""
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2029,10 +1955,6 @@
     <t>交易状态
 10-已受理、
 20-处理中、</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>QF-POSP-DEPO-PLATCUST-QUERY-STATUS-0076</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2529,10 +2451,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>errorInfo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>finishDateTime</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2758,18 +2676,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>code 值为200表示成功，400表示系统重试后内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
-{
- "code":"200",
- "msg":"成功",
- "data":{
-  "tradeNo":"test001",
-  "tradeStatus":"30"
- }
-}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>构造的C10的开户请求都返回错误，</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2796,6 +2702,153 @@
   </si>
   <si>
     <t>accountNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>QF-POSP-DEPO-PLATCUST-QUERY-STATUS-0076</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifyUrl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数示例：
+{
+ "tradeNo": "test001",
+ "tradeStatus": "30",
+ "finishDatetime":"2017-04-17 01:16:18",
+ "succeedAmount":"110.00"
+ "payChannel":"03",
+ "remark":""
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败原因描述，tradeStatus为40时有值，详见参考文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200：成功
+400：系统内部异常，需调用系统重新发起
+402：系统内部业务逻辑异常(说明传递的数据有逻辑上的错误（接口调用顺序有问题，比如开户前调用绑卡），可能需要人工检查后再处理) ，人工介入之后，需调用系统重新发起
+601：参数校验错误，人工介入之后，需调用系统重新发起</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败编号，tradeStatus为40时有值，详见参考文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台客户存管编号，此编号唯一标识客户在银行的存管编号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户账户类型：
+C-B10-夸客个人账户
+C-B10-存管账户
+C-C10-夸客总部账户
+C-C11-财富账户
+C-C12-互联网账户
+C-D10-借款账户
+C-D11-理财账户
+C-E10-冻结账户
+C-E11-余额账户
+C-E12-中间账户
+暂定传值为
+当客户为互联网理财客户时-C-A10-&gt;C-B10-&gt;C-C12-&gt;C-D11-&gt;C-E11
+当客户为财富理财客户时-C-A10-&gt;C-B10-&gt;C-C11-&gt;C-D11-&gt;C-E11
+当客户为互联网暖贷等借款客户时-C-A10-&gt;C-B10-&gt;C-C11-&gt;C-D10-&gt;C-E11
+当客户为财富借款客户时-C-A10-&gt;C-B10-&gt;C-C11-&gt;C-D10-&gt;C-E11（此项暂无）
+当客户为其他夸客总部借款客户时-C-A10-&gt;C-B10-&gt;C-C10-&gt;C-D10-&gt;C-E11
+多个操作用逗号分隔，和operAccountType先后顺序和个数对应，开始和最后不要加逗号。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作账户类型：
+10-开户
+11-充值
+12-他人转账转入
+16-自己转账转出
+13-冻结
+17-解冻（也是转账一种转账）
+18-转账
+14-提现
+15-销户
+21-绑卡
+22-解绑卡
+30-设置密码
+31-修改密码
+32-重置找回密码
+34-密码校验
+和operAccount先后顺序和个数对应，可以对应operAccount指定多种操作，多个操作用逗号分隔，开始和最后不要加逗号。此处暂定11。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口应答类型：
+0-异步（响应一定没有明确结果）
+1-同步（响应一定有明确结果）
+2-半同步（同步+异步，响应不一定有明确结果）
+暂定传值2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务BU的系统applicationCode，由POSP管理后台配置后分派各商户各BU的各使用
+1000-POSP管理后台
+1001-夸客XDT
+1002-夸客Q-BID
+1003-夸客UFO
+1004-夸客CRM
+1005-夸客CAIMI
+1006-夸客NXD</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code 值为200表示成功，400表示系统重试后内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
+{
+ "code":"200",
+ "msg":"成功",
+ "data":{
+  "tradeNo":"test001",
+  "tradeStatus":"30"
+ }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>200：成功
+400：系统内部异常，需调用系统重新发起
+402：系统内部业务逻辑异常(说明传递的数据有逻辑上的错误（接口调用顺序有问题，比如开户前调用绑卡），可能需要人工检查后再处理) ，人工介入之后，需调用系统重新发起
+601：参数校验错误，人工介入之后，需调用系统重新发起</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code 值为200表示成功，400表示系统重试后内部异常，402表示业务逻辑异常，601表示参数校验错误；400会进行重试，402、601不会进行重试
+{
+ "code":"200",
+ "msg":"成功",
+ "data":{
+  "tradeNo":"test001",
+  "tradeStatus":"30",
+  "finish_datetime":"2017-04-17 01:16:18",
+  "currency":"CNY",
+  "succeedAmount":"100.00",
+  "payChannel":"00",
+  "productCode","23023"
+ }
+}</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3636,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3720,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -4239,10 +4292,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -4250,7 +4303,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -4268,10 +4321,10 @@
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -4295,10 +4348,10 @@
     </row>
     <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -4306,10 +4359,10 @@
     </row>
     <row r="5" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
@@ -4333,10 +4386,10 @@
     </row>
     <row r="6" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
@@ -4360,10 +4413,10 @@
     </row>
     <row r="7" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="78"/>
@@ -4387,10 +4440,10 @@
     </row>
     <row r="8" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -4414,7 +4467,7 @@
     </row>
     <row r="9" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4439,19 +4492,19 @@
     </row>
     <row r="10" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
@@ -4472,19 +4525,19 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C11" s="36">
         <v>50</v>
       </c>
       <c r="D11" s="47" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -4505,19 +4558,19 @@
     </row>
     <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C12" s="23">
         <v>50</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -4538,19 +4591,19 @@
     </row>
     <row r="13" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C13" s="23">
         <v>2</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -4571,19 +4624,19 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C14" s="23">
         <v>5</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -4604,19 +4657,19 @@
     </row>
     <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C15" s="23">
         <v>500</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -4637,19 +4690,19 @@
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C16" s="12">
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -4670,19 +4723,19 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C17" s="12">
         <v>19</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -4703,16 +4756,16 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C18" s="12">
         <v>600</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>74</v>
@@ -4759,7 +4812,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -4768,53 +4821,53 @@
     </row>
     <row r="21" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C22" s="23">
         <v>4</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="17" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C23" s="23">
         <v>500</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
@@ -4852,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -4894,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -4902,7 +4955,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -4923,7 +4976,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C3" s="95"/>
       <c r="D3" s="95"/>
@@ -4950,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="79" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -4977,7 +5030,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C5" s="79"/>
       <c r="D5" s="79"/>
@@ -5004,7 +5057,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C6" s="95"/>
       <c r="D6" s="95"/>
@@ -5058,7 +5111,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="68"/>
@@ -5140,7 +5193,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>45</v>
@@ -5152,7 +5205,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -5182,7 +5235,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>24</v>
@@ -5215,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>27</v>
@@ -5279,10 +5332,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -5312,7 +5365,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>33</v>
@@ -5345,7 +5398,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>37</v>
@@ -5378,7 +5431,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>39</v>
@@ -5411,10 +5464,10 @@
         <v>32</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -5447,7 +5500,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -5480,7 +5533,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -5501,13 +5554,13 @@
     </row>
     <row r="22" spans="1:21" ht="57" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -5537,7 +5590,7 @@
         <v>600</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>74</v>
@@ -5603,10 +5656,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -5636,7 +5689,7 @@
         <v>500</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>151</v>
@@ -5660,10 +5713,10 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A29" s="39" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B29" s="91" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
@@ -5687,7 +5740,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A30" s="50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B30" s="50" t="s">
         <v>26</v>
@@ -5696,10 +5749,10 @@
         <v>50</v>
       </c>
       <c r="D30" s="50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -5729,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>89</v>
@@ -5753,7 +5806,7 @@
     </row>
     <row r="32" spans="1:21" ht="48" x14ac:dyDescent="0.15">
       <c r="A32" s="48" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>26</v>
@@ -5762,10 +5815,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -5786,7 +5839,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="48" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>26</v>
@@ -5795,10 +5848,10 @@
         <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="36" t="s">
         <v>275</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -5812,15 +5865,15 @@
         <v>20</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A35" s="48" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>26</v>
@@ -5829,15 +5882,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>26</v>
@@ -5846,10 +5899,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -5863,7 +5916,7 @@
         <v>5</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>93</v>
@@ -5880,7 +5933,7 @@
         <v>500</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E38" s="36" t="s">
         <v>95</v>
@@ -5939,7 +5992,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6214,8 +6267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6233,7 +6286,7 @@
         <v>100</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C1" s="78"/>
       <c r="D1" s="78"/>
@@ -6288,7 +6341,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
@@ -6299,7 +6352,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -6382,7 +6435,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="128.25" x14ac:dyDescent="0.15">
@@ -6655,7 +6708,7 @@
         <v>119</v>
       </c>
       <c r="F28" s="53" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
@@ -6699,8 +6752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7005,7 +7058,7 @@
     </row>
     <row r="13" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>397</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -7329,7 +7382,7 @@
         <v>21</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>149</v>
+        <v>396</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -7923,8 +7976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8007,7 +8060,7 @@
         <v>83</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>158</v>
+        <v>399</v>
       </c>
       <c r="C7" s="76"/>
       <c r="D7" s="76"/>
@@ -8053,7 +8106,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57" x14ac:dyDescent="0.15">
@@ -8102,7 +8155,7 @@
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
@@ -8119,7 +8172,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
@@ -8153,7 +8206,7 @@
         <v>21</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -8192,7 +8245,7 @@
     </row>
     <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>26</v>
@@ -8204,7 +8257,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -8221,12 +8274,12 @@
         <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>26</v>
@@ -8306,7 +8359,7 @@
         <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>164</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="270.75" x14ac:dyDescent="0.15">
@@ -8323,12 +8376,12 @@
         <v>21</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>26</v>
@@ -8340,7 +8393,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -8374,7 +8427,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -8391,7 +8444,7 @@
         <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -8442,12 +8495,12 @@
         <v>59</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>26</v>
@@ -8459,12 +8512,12 @@
         <v>59</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>26</v>
@@ -8476,12 +8529,12 @@
         <v>21</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>26</v>
@@ -8493,12 +8546,12 @@
         <v>21</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>177</v>
+        <v>398</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>26</v>
@@ -8510,7 +8563,7 @@
         <v>59</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="156.75" x14ac:dyDescent="0.15">
@@ -8527,12 +8580,12 @@
         <v>59</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>26</v>
@@ -8544,12 +8597,12 @@
         <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A40" s="11" t="s">
-        <v>71</v>
+        <v>384</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>26</v>
@@ -8578,7 +8631,7 @@
         <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8605,8 +8658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8628,10 +8681,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -8639,7 +8692,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -8657,10 +8710,10 @@
     </row>
     <row r="3" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -8687,7 +8740,7 @@
         <v>154</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -8709,7 +8762,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
@@ -8763,7 +8816,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -8845,7 +8898,7 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -8878,7 +8931,7 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -8911,7 +8964,7 @@
     </row>
     <row r="13" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -8923,7 +8976,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>193</v>
+        <v>389</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -8944,7 +8997,7 @@
     </row>
     <row r="14" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
@@ -8953,10 +9006,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>194</v>
+        <v>386</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -8977,7 +9030,7 @@
     </row>
     <row r="15" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>26</v>
@@ -8989,7 +9042,7 @@
         <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -9010,7 +9063,7 @@
     </row>
     <row r="16" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>26</v>
@@ -9022,7 +9075,7 @@
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -9043,7 +9096,7 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -9055,7 +9108,7 @@
         <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -9076,7 +9129,7 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>26</v>
@@ -9142,7 +9195,7 @@
     </row>
     <row r="20" spans="1:21" s="30" customFormat="1" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>26</v>
@@ -9154,7 +9207,7 @@
         <v>90</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -9175,7 +9228,7 @@
     </row>
     <row r="21" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>26</v>
@@ -9324,7 +9377,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>149</v>
+        <v>388</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -10053,10 +10106,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -10064,7 +10117,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -10082,10 +10135,10 @@
     </row>
     <row r="3" spans="1:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -10134,7 +10187,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="78"/>
@@ -10188,7 +10241,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -10270,7 +10323,7 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>20</v>
@@ -10282,7 +10335,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -10303,7 +10356,7 @@
     </row>
     <row r="12" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>26</v>
@@ -10315,7 +10368,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -10336,7 +10389,7 @@
     </row>
     <row r="13" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>26</v>
@@ -10348,7 +10401,7 @@
         <v>86</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -10369,7 +10422,7 @@
     </row>
     <row r="14" spans="1:21" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
@@ -10378,10 +10431,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -10402,7 +10455,7 @@
     </row>
     <row r="15" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>26</v>
@@ -10435,7 +10488,7 @@
     </row>
     <row r="16" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>26</v>
@@ -10468,7 +10521,7 @@
     </row>
     <row r="17" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>26</v>
@@ -10480,7 +10533,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -10501,7 +10554,7 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>26</v>
@@ -10513,7 +10566,7 @@
         <v>86</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -10567,7 +10620,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>26</v>
@@ -10612,7 +10665,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -10633,7 +10686,7 @@
     </row>
     <row r="22" spans="1:21" s="30" customFormat="1" ht="213.75" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>26</v>
@@ -10645,7 +10698,7 @@
         <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -10666,7 +10719,7 @@
     </row>
     <row r="23" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>26</v>
@@ -10678,7 +10731,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -10699,7 +10752,7 @@
     </row>
     <row r="24" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>26</v>
@@ -10777,7 +10830,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -10864,7 +10917,7 @@
     </row>
     <row r="29" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>26</v>
@@ -10876,7 +10929,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -10909,7 +10962,7 @@
         <v>86</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -10930,7 +10983,7 @@
     </row>
     <row r="31" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>26</v>
@@ -10996,7 +11049,7 @@
     </row>
     <row r="33" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>26</v>
@@ -11008,7 +11061,7 @@
         <v>90</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -11041,7 +11094,7 @@
         <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
@@ -11062,7 +11115,7 @@
     </row>
     <row r="35" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>26</v>
@@ -11074,7 +11127,7 @@
         <v>90</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -11095,7 +11148,7 @@
     </row>
     <row r="36" spans="1:21" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B36" s="17" t="s">
         <v>26</v>
@@ -11107,7 +11160,7 @@
         <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -11128,7 +11181,7 @@
     </row>
     <row r="37" spans="1:21" s="30" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B37" s="17" t="s">
         <v>26</v>
@@ -11140,7 +11193,7 @@
         <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -11161,7 +11214,7 @@
     </row>
     <row r="38" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>26</v>
@@ -11173,7 +11226,7 @@
         <v>86</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
@@ -11194,7 +11247,7 @@
     </row>
     <row r="39" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B39" s="17" t="s">
         <v>26</v>
@@ -11206,7 +11259,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -11227,7 +11280,7 @@
     </row>
     <row r="40" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="17" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>26</v>
@@ -11239,7 +11292,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -11260,7 +11313,7 @@
     </row>
     <row r="41" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="17" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>26</v>
@@ -11272,7 +11325,7 @@
         <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -11293,7 +11346,7 @@
     </row>
     <row r="42" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>26</v>
@@ -11305,7 +11358,7 @@
         <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -11371,7 +11424,7 @@
         <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -11441,10 +11494,10 @@
     </row>
     <row r="48" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A48" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C48" s="2">
         <v>4</v>
@@ -11453,15 +11506,15 @@
         <v>86</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C49" s="2">
         <v>500</v>
@@ -11470,28 +11523,28 @@
         <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="31" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="31" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C51" s="2">
         <v>50</v>
@@ -11505,7 +11558,7 @@
     </row>
     <row r="52" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>26</v>
@@ -11517,12 +11570,12 @@
         <v>86</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>26</v>
@@ -11534,7 +11587,7 @@
         <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -11551,7 +11604,7 @@
         <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -11590,7 +11643,7 @@
     </row>
     <row r="57" spans="1:5" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A57" s="11" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>26</v>
@@ -11602,12 +11655,12 @@
         <v>90</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>26</v>
@@ -11728,8 +11781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11751,10 +11804,10 @@
     </row>
     <row r="2" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="78"/>
@@ -11762,7 +11815,7 @@
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="29" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
@@ -11783,7 +11836,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
@@ -11810,7 +11863,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -11821,7 +11874,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
@@ -11832,7 +11885,7 @@
         <v>80</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
@@ -11886,7 +11939,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -11968,7 +12021,7 @@
     </row>
     <row r="11" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -11977,7 +12030,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>87</v>
@@ -12001,7 +12054,7 @@
     </row>
     <row r="12" spans="1:21" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
@@ -12010,10 +12063,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -12043,10 +12096,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -12076,10 +12129,10 @@
         <v>500</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -12109,7 +12162,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>97</v>
@@ -12142,7 +12195,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>99</v>
@@ -12175,10 +12228,10 @@
         <v>2</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -12208,7 +12261,7 @@
         <v>600</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>74</v>
@@ -12322,7 +12375,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>149</v>
@@ -12355,7 +12408,7 @@
         <v>500</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>151</v>
@@ -13105,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -13113,7 +13166,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="29" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
@@ -13134,7 +13187,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -13161,7 +13214,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="87"/>
@@ -13180,10 +13233,10 @@
     </row>
     <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A6" s="34" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -13237,7 +13290,7 @@
         <v>83</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="76"/>
@@ -13331,7 +13384,7 @@
         <v>86</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
@@ -13352,7 +13405,7 @@
     </row>
     <row r="12" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>26</v>
@@ -13364,7 +13417,7 @@
         <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
@@ -13385,7 +13438,7 @@
     </row>
     <row r="13" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>26</v>
@@ -13397,7 +13450,7 @@
         <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
@@ -13418,7 +13471,7 @@
     </row>
     <row r="14" spans="1:21" ht="99.75" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>26</v>
@@ -13430,7 +13483,7 @@
         <v>86</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
@@ -13461,7 +13514,7 @@
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
@@ -13482,7 +13535,7 @@
     </row>
     <row r="16" spans="1:21" ht="85.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>26</v>
@@ -13494,7 +13547,7 @@
         <v>86</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -13515,7 +13568,7 @@
     </row>
     <row r="17" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>26</v>
@@ -13527,7 +13580,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
@@ -13548,7 +13601,7 @@
     </row>
     <row r="18" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>26</v>
@@ -13581,7 +13634,7 @@
     </row>
     <row r="19" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>26</v>
@@ -13614,7 +13667,7 @@
     </row>
     <row r="20" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>26</v>
@@ -13626,7 +13679,7 @@
         <v>90</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -13647,7 +13700,7 @@
     </row>
     <row r="21" spans="1:21" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>26</v>
@@ -13680,7 +13733,7 @@
     </row>
     <row r="22" spans="1:21" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>26</v>
@@ -13692,7 +13745,7 @@
         <v>86</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
@@ -13713,7 +13766,7 @@
     </row>
     <row r="23" spans="1:21" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B23" s="38" t="s">
         <v>26</v>
@@ -13725,7 +13778,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
@@ -13746,17 +13799,17 @@
     </row>
     <row r="24" spans="1:21" s="44" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="39" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="42" t="s">
         <v>86</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -13777,7 +13830,7 @@
     </row>
     <row r="25" spans="1:21" s="28" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>26</v>
@@ -13839,12 +13892,12 @@
         <v>86</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="228" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>26</v>
@@ -13856,12 +13909,12 @@
         <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>26</v>
@@ -13873,12 +13926,12 @@
         <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>26</v>
@@ -13907,7 +13960,7 @@
         <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="14.25" x14ac:dyDescent="0.15">
@@ -13929,7 +13982,7 @@
     </row>
     <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>26</v>
@@ -13941,12 +13994,12 @@
         <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="17" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>26</v>
@@ -13958,12 +14011,12 @@
         <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B35" s="17" t="s">
         <v>26</v>
@@ -13975,7 +14028,7 @@
         <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -13992,7 +14045,7 @@
         <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -14042,7 +14095,7 @@
         <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
@@ -14064,20 +14117,20 @@
     </row>
     <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="45" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="45" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="46" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B43" s="47" t="s">
         <v>26</v>
@@ -14089,12 +14142,12 @@
         <v>86</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A44" s="48" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B44" s="48" t="s">
         <v>26</v>
@@ -14106,12 +14159,12 @@
         <v>86</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="48" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B45" s="48" t="s">
         <v>26</v>

--- a/testData/对接posp接口.xlsx
+++ b/testData/对接posp接口.xlsx
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="402">
   <si>
     <t>编号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2849,6 +2849,14 @@
   "productCode","23023"
  }
 }</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>payChannel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7976,8 +7984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8381,7 +8389,7 @@
     </row>
     <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>26</v>
@@ -8568,7 +8576,7 @@
     </row>
     <row r="38" spans="1:5" ht="156.75" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>69</v>
+        <v>400</v>
       </c>
       <c r="B38" s="17" t="s">
         <v>45</v>
@@ -8658,7 +8666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
